--- a/biology/Botanique/Épurge/Épurge.xlsx
+++ b/biology/Botanique/Épurge/Épurge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89purge</t>
+          <t>Épurge</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euphorbia lathyris
-L'épurge, euphorbe des jardins ou euphorbe épurge[1] est une espèce de plantes à fleurs de la famille des Euphorbiaceae. C'est une plante herbacée bisannuelle assez commune en Europe, parfois cultivée dans les jardins.
+L'épurge, euphorbe des jardins ou euphorbe épurge est une espèce de plantes à fleurs de la famille des Euphorbiaceae. C'est une plante herbacée bisannuelle assez commune en Europe, parfois cultivée dans les jardins.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89purge</t>
+          <t>Épurge</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nom scientifique : Euphorbia lathyris L, famille des Euphorbiacées, sous-famille des  Euphorbioideae, tribu des Euphorbieae, sous-tribu des Euphorbiinae. Ce taxon est parfois erronément nommé (Syn.) Euphorbia lathyrus.
-Linné a orthographié l'épithète comme « lathyrus » dans « Sp. Pl. 1: 457. 1753.» et comme « lathyris » dans « Syst. Nat. ed. 10, 2: 1048. 1759.» et «Sp. Pl. ed. 2, 1: 655. 1762.» (cf., Code de Vienne Art. 13.4)[2].
+Linné a orthographié l'épithète comme « lathyrus » dans « Sp. Pl. 1: 457. 1753.» et comme « lathyris » dans « Syst. Nat. ed. 10, 2: 1048. 1759.» et «Sp. Pl. ed. 2, 1: 655. 1762.» (cf., Code de Vienne Art. 13.4).
 Noms communs : épurge, purge, euphorbe des jardins (attention à ne pas confondre avec Euphorbia peplus qui porte le même nom vernaculaire), chasse-taupe, herbe à la taupe. de : kreuzblättrige Wolfsmilch, en : caper spurge, mole plante, es : lechetrezna.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89purge</t>
+          <t>Épurge</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom « épurge » vient de l’ancien français espurgier, expurger, en référence aux propriétés purgatives des graines.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89purge</t>
+          <t>Épurge</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est originaire du sud de l’Europe (France, Italie, Grèce) et de la Chine. Elle s’est naturalisée dans de nombreux pays.
 C’est une plante rudérale qui se rencontre dans les friches, les décombres, au voisinage des habitations et dans les jardins.
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89purge</t>
+          <t>Épurge</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante bisannuelle a un port très particulier : une tige dressée, droite, simple, creuse, se ramifiant seulement vers son sommet et portant des feuilles opposées décussées, c’est-à-dire disposées par paires en croix, à l’horizontale. La tige se prolonge en terre par une racine pivotante. La hauteur de la plante est de 30 à 150 cm.
 Les feuilles, d’un vert bleuté (glaucescentes), sont sessiles, entières, allongées, glabres, un peu embrassantes, se rétrécissant vers leur extrémité terminée par une petite pointe. Elles n’ont qu’une seule nervure blanchâtre. La largeur des feuilles atteint 15 mm.
@@ -624,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89purge</t>
+          <t>Épurge</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,7 +662,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs
 Type d’inflorescence : cyathe
@@ -666,7 +688,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>%C3%89purge</t>
+          <t>Épurge</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -684,7 +706,9 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme toutes les euphorbes, la plante laisse s'écouler un latex blanc quand on la coupe.
 L'huile extraite des graines a été utilisée pour l'éclairage.
@@ -701,7 +725,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>%C3%89purge</t>
+          <t>Épurge</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -719,7 +743,9 @@
           <t>Autre plante appelée "épurge"</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Laurier épurge ou daphné lauréole (Daphne laureola), Thyméléacées.</t>
         </is>
